--- a/_ConfigExcels/Datas/dungeon.xlsx
+++ b/_ConfigExcels/Datas/dungeon.xlsx
@@ -77,10 +77,10 @@
     <t>第一关</t>
   </si>
   <si>
-    <t>0,3.3</t>
-  </si>
-  <si>
-    <t>0,5.3</t>
+    <t>-1,4.3</t>
+  </si>
+  <si>
+    <t>1,4.3</t>
   </si>
   <si>
     <t>第二关</t>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/_ConfigExcels/Datas/dungeon.xlsx
+++ b/_ConfigExcels/Datas/dungeon.xlsx
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1172,7 +1172,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="7:8">

--- a/_ConfigExcels/Datas/dungeon.xlsx
+++ b/_ConfigExcels/Datas/dungeon.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="23490" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -38,6 +38,9 @@
     <t>text_name</t>
   </si>
   <si>
+    <t>dungeon_level</t>
+  </si>
+  <si>
     <t>*portals</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>关卡名称</t>
+  </si>
+  <si>
+    <t>关卡等级</t>
   </si>
   <si>
     <t>坐标</t>
@@ -99,7 +105,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +117,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +280,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,67 +561,70 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,77 +639,74 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,16 +717,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1058,28 +1048,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23" style="2" customWidth="1"/>
-    <col min="13" max="13" width="38.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.5" style="2" customWidth="1"/>
+    <col min="6" max="7" width="20.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23" style="2" customWidth="1"/>
+    <col min="14" max="14" width="38.125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,100 +1080,115 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2">
+    <row r="6" spans="5:6">
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="7:8">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+    <row r="8" spans="8:9">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/_ConfigExcels/Datas/dungeon.xlsx
+++ b/_ConfigExcels/Datas/dungeon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -118,6 +118,58 @@
       </rPr>
       <t>0</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass_award</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,Beans.Item_Require</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -195,6 +247,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -202,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,13 +295,31 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,17 +610,18 @@
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.5" style="2" customWidth="1"/>
-    <col min="6" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23" style="2" customWidth="1"/>
-    <col min="14" max="14" width="38.125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="7" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="18.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,12 +634,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -557,12 +657,17 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +677,17 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -592,10 +706,13 @@
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -611,8 +728,15 @@
       <c r="F5" s="2">
         <v>1001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
@@ -620,7 +744,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -636,30 +760,206 @@
       <c r="F7" s="2">
         <v>1002</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2">
         <v>1001</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
